--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33620" windowHeight="20540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33680" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="BOM" localSheetId="0">Sheet1!$A$6:$I$41</definedName>
+    <definedName name="BOM" localSheetId="0">Sheet1!$A$6:$J$40</definedName>
   </definedNames>
   <calcPr calcId="140000" iterate="1" concurrentCalc="0"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="228">
   <si>
     <t>Qty</t>
   </si>
@@ -286,12 +286,6 @@
     <t>U$4</t>
   </si>
   <si>
-    <t>PCB_ANTENNA</t>
-  </si>
-  <si>
-    <t>U$6</t>
-  </si>
-  <si>
     <t>RED</t>
   </si>
   <si>
@@ -301,9 +295,6 @@
     <t>TSX-3225</t>
   </si>
   <si>
-    <t>SER3635CT-ND</t>
-  </si>
-  <si>
     <t>VENUS838FLPX</t>
   </si>
   <si>
@@ -625,12 +616,6 @@
     <t>https://www.digikey.com/products/en?keywords=LV8417CS-TE-L-HOSCT-ND</t>
   </si>
   <si>
-    <t>Embedded PCB antenna</t>
-  </si>
-  <si>
-    <t>Embedded traces</t>
-  </si>
-  <si>
     <t>475-2506-1-ND</t>
   </si>
   <si>
@@ -640,13 +625,7 @@
     <t>https://www.digikey.com/product-detail/en/osram-opto-semiconductors-inc/LS-L29K-G1J2-1-Z/475-2506-1-ND/1802633</t>
   </si>
   <si>
-    <t>I will mail you these</t>
-  </si>
-  <si>
     <t>LED3,LED2</t>
-  </si>
-  <si>
-    <t>Digikey P/N</t>
   </si>
   <si>
     <t>Manufacturer P/N</t>
@@ -755,19 +734,24 @@
       <t>V. Hunter Adams (Cornell University)</t>
     </r>
   </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>Vendor P/N</t>
+  </si>
+  <si>
+    <t>I will mail these to you</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -849,37 +833,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1214,10 +1204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1227,34 +1217,36 @@
     <col min="5" max="5" width="23.1640625" customWidth="1"/>
     <col min="6" max="6" width="42" customWidth="1"/>
     <col min="7" max="7" width="51.5" customWidth="1"/>
-    <col min="8" max="8" width="29" customWidth="1"/>
-    <col min="9" max="9" width="29.83203125" customWidth="1"/>
-    <col min="10" max="10" width="19.1640625" customWidth="1"/>
-    <col min="11" max="11" width="112.6640625" customWidth="1"/>
+    <col min="8" max="8" width="51.5" style="9" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="29.83203125" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" customWidth="1"/>
+    <col min="12" max="12" width="112.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1">
-      <c r="A1" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-    </row>
-    <row r="6" spans="1:11">
+    <row r="1" spans="1:12" s="6" customFormat="1">
+      <c r="A1" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
@@ -1262,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>2</v>
@@ -1277,19 +1269,22 @@
         <v>5</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>196</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1304,25 +1299,28 @@
         <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>11</v>
       </c>
@@ -1337,25 +1335,28 @@
         <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>97</v>
+      <c r="H8" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="J8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1375,20 +1376,23 @@
       <c r="G9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
         <v>100</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -1408,20 +1412,23 @@
       <c r="G10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
         <v>104</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1441,20 +1448,23 @@
       <c r="G11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
         <v>108</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1474,20 +1484,23 @@
       <c r="G12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>112</v>
+      <c r="H12" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>109</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1507,20 +1520,23 @@
       <c r="G13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>115</v>
+      <c r="H13" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>112</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -1540,20 +1556,23 @@
       <c r="G14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L14" t="s">
         <v>118</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>6</v>
       </c>
@@ -1568,25 +1587,28 @@
         <v>26</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>122</v>
+      <c r="H15" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="J15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="K15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="K15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -1606,20 +1628,23 @@
       <c r="G16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>126</v>
+      <c r="H16" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>123</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -1639,20 +1664,23 @@
       <c r="G17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>129</v>
+      <c r="H17" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>126</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -1672,20 +1700,23 @@
       <c r="G18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>132</v>
+      <c r="H18" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>129</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -1705,20 +1736,23 @@
       <c r="G19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L19" t="s">
         <v>135</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>3</v>
       </c>
@@ -1738,20 +1772,23 @@
       <c r="G20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>139</v>
+      <c r="H20" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>136</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -1771,20 +1808,23 @@
       <c r="G21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>142</v>
+      <c r="H21" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K21" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>139</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -1804,20 +1844,23 @@
       <c r="G22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>221</v>
+      <c r="H22" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>110</v>
+        <v>214</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>107</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -1835,22 +1878,25 @@
         <v>43</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L23" t="s">
         <v>145</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K23" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -1868,22 +1914,25 @@
         <v>45</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H24" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L24" t="s">
         <v>149</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K24" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -1901,22 +1950,25 @@
         <v>47</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>153</v>
+        <v>142</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K25" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>150</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>2</v>
       </c>
@@ -1931,25 +1983,28 @@
         <v>51</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="L26" t="s">
         <v>157</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K26" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -1969,20 +2024,23 @@
       <c r="G27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L27" t="s">
         <v>161</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K27" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -2002,20 +2060,23 @@
       <c r="G28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L28" t="s">
         <v>165</v>
       </c>
-      <c r="I28" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K28" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -2033,22 +2094,25 @@
         <v>59</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J29" s="4">
+        <v>467652001</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L29" t="s">
         <v>169</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I29" s="4">
-        <v>467652001</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="K29" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -2066,22 +2130,25 @@
         <v>61</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L30" t="s">
         <v>173</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -2099,22 +2166,25 @@
         <v>63</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L31" t="s">
         <v>177</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K31" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -2132,22 +2202,25 @@
         <v>65</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>187</v>
+        <v>199</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>184</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -2167,20 +2240,23 @@
       <c r="G33" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L33" t="s">
         <v>181</v>
       </c>
-      <c r="I33" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="K33" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -2200,20 +2276,23 @@
       <c r="G34" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L34" t="s">
         <v>185</v>
       </c>
-      <c r="I34" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="K34" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -2231,22 +2310,25 @@
         <v>75</v>
       </c>
       <c r="G35" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="L35" t="s">
         <v>190</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="K35" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1">
         <v>2</v>
       </c>
@@ -2264,22 +2346,25 @@
         <v>78</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>110</v>
+        <v>203</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>107</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -2297,22 +2382,25 @@
         <v>80</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>120</v>
+        <v>207</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>117</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -2321,31 +2409,34 @@
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>82</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>195</v>
+        <v>225</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>156</v>
+      </c>
+      <c r="L38" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -2354,164 +2445,139 @@
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>196</v>
+        <v>210</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K39" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>211</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1">
         <v>1</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H40" s="2" t="s">
+      <c r="H40" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="7">
+        <v>5</v>
+      </c>
+      <c r="B41" s="7">
+        <v>0</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="D41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="7">
+        <v>2</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K40" s="1" t="s">
+      <c r="H42" s="7"/>
+      <c r="I42" s="7" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="1">
-        <v>1</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="7">
-        <v>5</v>
-      </c>
-      <c r="B42" s="7">
-        <v>0</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="J42" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="7">
-        <v>2</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
